--- a/Data/Result/ResNewPolicy.xlsx
+++ b/Data/Result/ResNewPolicy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{24DC2032-D8B9-474D-80CD-435E8C6E76C2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8B9CC47B-FF59-419C-94A0-B98CEB3737B8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>TestId</t>
   </si>
@@ -47,13 +47,10 @@
     <t>newpol_001</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>newpol_002</t>
   </si>
 </sst>
 </file>
@@ -387,7 +384,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,11 +415,19 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D3"/>
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D4"/>

--- a/Data/Result/ResNewPolicy.xlsx
+++ b/Data/Result/ResNewPolicy.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{8B9CC47B-FF59-419C-94A0-B98CEB3737B8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4217C1F4-5757-4F99-B1DA-F01F2B223159}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView windowHeight="8964" windowWidth="17280" xWindow="2232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2232"/>
   </bookViews>
   <sheets>
     <sheet name="NewPolicy" r:id="rId1" sheetId="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>TestId</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>newpol_002</t>
+  </si>
+  <si>
+    <t>gen123test</t>
+  </si>
+  <si>
+    <t>GL202112290643</t>
+  </si>
+  <si>
+    <t>GL202112301151</t>
   </si>
 </sst>
 </file>
@@ -384,7 +393,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,7 +424,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">

--- a/Data/Result/ResNewPolicy.xlsx
+++ b/Data/Result/ResNewPolicy.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>TestId</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>GL202112301151</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>GL202112301200</t>
   </si>
 </sst>
 </file>
@@ -424,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">

--- a/Data/Result/ResNewPolicy.xlsx
+++ b/Data/Result/ResNewPolicy.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>TestId</t>
   </si>
@@ -427,7 +427,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
